--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -70,57 +70,54 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -130,6 +127,12 @@
     <t>like</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
@@ -139,28 +142,31 @@
     <t>hope</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -524,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +541,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +623,13 @@
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,13 +673,13 @@
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -693,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.708904109589041</v>
+        <v>0.7226027397260274</v>
       </c>
       <c r="C5">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D5">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -743,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3733333333333334</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3691275167785235</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="C7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8359375</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L7">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="M7">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3624031007751938</v>
+        <v>0.3275193798449613</v>
       </c>
       <c r="C8">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="D8">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8359375</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.291005291005291</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +973,13 @@
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8085106382978723</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1043,13 +1049,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7647058823529411</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1061,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1069,13 +1075,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7586206896551724</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1087,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1095,13 +1101,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L14">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M14">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1113,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1121,13 +1127,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.746031746031746</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1139,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1147,13 +1153,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.73125</v>
+        <v>0.71875</v>
       </c>
       <c r="L16">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M16">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1165,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1173,13 +1179,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7169811320754716</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L17">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1191,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1199,13 +1205,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.7127659574468085</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L18">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M18">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1217,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1225,13 +1231,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6944444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1243,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1251,13 +1257,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6875</v>
+        <v>0.6161879895561357</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1269,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1277,13 +1283,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6475195822454308</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L21">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="M21">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1295,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1303,13 +1309,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5647058823529412</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L22">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1321,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>148</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1329,13 +1335,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.54</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1347,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1355,13 +1361,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5186440677966102</v>
+        <v>0.54</v>
       </c>
       <c r="L24">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1373,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1381,13 +1387,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5076923076923077</v>
+        <v>0.5220338983050847</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1399,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1407,13 +1413,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5056179775280899</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L26">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1425,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1433,13 +1439,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4686192468619247</v>
+        <v>0.4728033472803347</v>
       </c>
       <c r="L27">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M27">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1451,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1459,13 +1465,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4383561643835616</v>
+        <v>0.453125</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1477,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1485,13 +1491,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4102564102564102</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1503,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1511,13 +1517,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.09330143540669857</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1529,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>379</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1537,13 +1543,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.08653846153846154</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1555,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1563,13 +1569,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.05369127516778523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L32">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1581,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>846</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1589,13 +1595,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.03995560488346282</v>
+        <v>0.05480984340044743</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1607,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>865</v>
+        <v>845</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1615,25 +1621,25 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.02616822429906542</v>
+        <v>0.03662597114317425</v>
       </c>
       <c r="L34">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>2084</v>
+        <v>868</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1641,25 +1647,77 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.01352221506761108</v>
+        <v>0.03114186851211072</v>
       </c>
       <c r="L35">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N35">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>3064</v>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36">
+        <v>0.02476635514018691</v>
+      </c>
+      <c r="L36">
+        <v>53</v>
+      </c>
+      <c r="M36">
+        <v>56</v>
+      </c>
+      <c r="N36">
+        <v>0.95</v>
+      </c>
+      <c r="O36">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37">
+        <v>0.01160541586073501</v>
+      </c>
+      <c r="L37">
+        <v>36</v>
+      </c>
+      <c r="M37">
+        <v>41</v>
+      </c>
+      <c r="N37">
+        <v>0.88</v>
+      </c>
+      <c r="O37">
+        <v>0.12</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>3066</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,12 +52,12 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -70,15 +70,15 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -88,85 +88,88 @@
     <t>thank</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -530,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,13 +626,13 @@
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +676,13 @@
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -699,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7226027397260274</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C5">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D5">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4133333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
@@ -799,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3758389261744967</v>
+        <v>0.3565891472868217</v>
       </c>
       <c r="C7">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>93</v>
+        <v>332</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8536585365853658</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L7">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M7">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3275193798449613</v>
+        <v>0.3422818791946309</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>347</v>
+        <v>98</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8359375</v>
+        <v>0.8203125</v>
       </c>
       <c r="L8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +902,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2962962962962963</v>
+        <v>0.291005291005291</v>
       </c>
       <c r="C9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8166666666666667</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L9">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="M9">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1626984126984127</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -967,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
@@ -999,13 +1002,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.09919571045576407</v>
+        <v>0.08847184986595175</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.7887323943661971</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="M11">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,13 +1052,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7758620689655172</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1067,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1075,13 +1078,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7619047619047619</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1093,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1101,13 +1104,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7547169811320755</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L14">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1119,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1127,13 +1130,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7254901960784313</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1145,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1153,13 +1156,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.71875</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L16">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1171,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1179,13 +1182,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7021276595744681</v>
+        <v>0.71875</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1197,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1205,13 +1208,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6808510638297872</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L18">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1223,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1231,13 +1234,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.625</v>
+        <v>0.64</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1257,13 +1260,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6161879895561357</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L20">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1275,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1283,13 +1286,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.5852941176470589</v>
+        <v>0.625</v>
       </c>
       <c r="L21">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1301,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1309,13 +1312,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5813953488372093</v>
+        <v>0.618798955613577</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1327,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1335,13 +1338,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.550561797752809</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L23">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1353,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1361,13 +1364,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.54</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1379,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>23</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1387,13 +1390,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5220338983050847</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L25">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="M25">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1405,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>141</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1413,13 +1416,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.4923076923076923</v>
+        <v>0.5146443514644351</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1431,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1439,13 +1442,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4728033472803347</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="L27">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="M27">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1457,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1465,13 +1468,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.453125</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1483,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1491,13 +1494,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4520547945205479</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1509,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1517,13 +1520,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4358974358974359</v>
+        <v>0.421875</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1535,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1543,13 +1546,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.09134615384615384</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1561,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>378</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1569,13 +1572,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.09090909090909091</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1587,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>380</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1595,13 +1598,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.05480984340044743</v>
+        <v>0.1124401913875598</v>
       </c>
       <c r="L33">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M33">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1613,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>845</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1621,13 +1624,13 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.03662597114317425</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1639,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>868</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1647,13 +1650,13 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.03114186851211072</v>
+        <v>0.05704697986577181</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1665,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1673,25 +1676,25 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.02476635514018691</v>
+        <v>0.04772475027746948</v>
       </c>
       <c r="L36">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M36">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N36">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>2087</v>
+        <v>858</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1699,25 +1702,51 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>0.01160541586073501</v>
+        <v>0.03085553997194951</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="M37">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="N37">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O37">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>3066</v>
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38">
+        <v>0.01739690721649485</v>
+      </c>
+      <c r="L38">
+        <v>54</v>
+      </c>
+      <c r="M38">
+        <v>57</v>
+      </c>
+      <c r="N38">
+        <v>0.95</v>
+      </c>
+      <c r="O38">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>3050</v>
       </c>
     </row>
   </sheetData>
